--- a/data/temperature/temperature_indonesia.xlsx
+++ b/data/temperature/temperature_indonesia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanda\Documents\Erwin\My Working\Code Programming\GitHub\sensei-data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanda\Documents\Erwin\My Working\Code Programming\GitHub\sensei-data\data\temperature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0838F53E-A394-41DC-B58C-5B71EFD9F00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7082B65C-E44C-4F18-9D4A-99D541743055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="temperature_indonesia" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>mean_temperature</t>
   </si>
@@ -30,13 +30,16 @@
   <si>
     <t>date</t>
   </si>
+  <si>
+    <t>year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -517,7 +520,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -872,11 +875,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -885,7 +888,7 @@
     <col min="3" max="3" width="14.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -895,8 +898,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>367</v>
       </c>
@@ -906,8 +912,11 @@
       <c r="C2">
         <v>25.41</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>732</v>
       </c>
@@ -917,8 +926,11 @@
       <c r="C3">
         <v>25.39</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1097</v>
       </c>
@@ -928,8 +940,11 @@
       <c r="C4">
         <v>25.37</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1462</v>
       </c>
@@ -939,8 +954,11 @@
       <c r="C5">
         <v>25.35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1828</v>
       </c>
@@ -950,8 +968,11 @@
       <c r="C6">
         <v>25.35</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>2193</v>
       </c>
@@ -961,8 +982,11 @@
       <c r="C7">
         <v>25.35</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D7">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>2558</v>
       </c>
@@ -972,8 +996,11 @@
       <c r="C8">
         <v>25.37</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D8">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>2923</v>
       </c>
@@ -983,8 +1010,11 @@
       <c r="C9">
         <v>25.41</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D9">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>3289</v>
       </c>
@@ -994,8 +1024,11 @@
       <c r="C10">
         <v>25.45</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D10">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>3654</v>
       </c>
@@ -1005,8 +1038,11 @@
       <c r="C11">
         <v>25.49</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D11">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>4019</v>
       </c>
@@ -1016,8 +1052,11 @@
       <c r="C12">
         <v>25.52</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D12">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>4384</v>
       </c>
@@ -1027,8 +1066,11 @@
       <c r="C13">
         <v>25.54</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D13">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>4750</v>
       </c>
@@ -1038,8 +1080,11 @@
       <c r="C14">
         <v>25.55</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D14">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>5115</v>
       </c>
@@ -1049,8 +1094,11 @@
       <c r="C15">
         <v>25.55</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D15">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>5480</v>
       </c>
@@ -1060,8 +1108,11 @@
       <c r="C16">
         <v>25.54</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D16">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>5845</v>
       </c>
@@ -1071,8 +1122,11 @@
       <c r="C17">
         <v>25.53</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D17">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>6211</v>
       </c>
@@ -1082,8 +1136,11 @@
       <c r="C18">
         <v>25.51</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D18">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>6576</v>
       </c>
@@ -1093,8 +1150,11 @@
       <c r="C19">
         <v>25.49</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D19">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>6941</v>
       </c>
@@ -1104,8 +1164,11 @@
       <c r="C20">
         <v>25.47</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D20">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>7306</v>
       </c>
@@ -1115,8 +1178,11 @@
       <c r="C21">
         <v>25.46</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D21">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>7672</v>
       </c>
@@ -1126,8 +1192,11 @@
       <c r="C22">
         <v>25.45</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D22">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>8037</v>
       </c>
@@ -1137,8 +1206,11 @@
       <c r="C23">
         <v>25.46</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D23">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>8402</v>
       </c>
@@ -1148,8 +1220,11 @@
       <c r="C24">
         <v>25.48</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D24">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>8767</v>
       </c>
@@ -1159,8 +1234,11 @@
       <c r="C25">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D25">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>9133</v>
       </c>
@@ -1170,8 +1248,11 @@
       <c r="C26">
         <v>25.52</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D26">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>9498</v>
       </c>
@@ -1181,8 +1262,11 @@
       <c r="C27">
         <v>25.54</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D27">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>9863</v>
       </c>
@@ -1192,8 +1276,11 @@
       <c r="C28">
         <v>25.55</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D28">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>10228</v>
       </c>
@@ -1203,8 +1290,11 @@
       <c r="C29">
         <v>25.55</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D29">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>10594</v>
       </c>
@@ -1214,8 +1304,11 @@
       <c r="C30">
         <v>25.53</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D30">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>10959</v>
       </c>
@@ -1225,8 +1318,11 @@
       <c r="C31">
         <v>25.52</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D31">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>11324</v>
       </c>
@@ -1236,8 +1332,11 @@
       <c r="C32">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D32">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>11689</v>
       </c>
@@ -1247,8 +1346,11 @@
       <c r="C33">
         <v>25.49</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D33">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>12055</v>
       </c>
@@ -1258,8 +1360,11 @@
       <c r="C34">
         <v>25.49</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D34">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>12420</v>
       </c>
@@ -1269,8 +1374,11 @@
       <c r="C35">
         <v>25.51</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D35">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>12785</v>
       </c>
@@ -1280,8 +1388,11 @@
       <c r="C36">
         <v>25.53</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D36">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>13150</v>
       </c>
@@ -1291,8 +1402,11 @@
       <c r="C37">
         <v>25.55</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D37">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>13516</v>
       </c>
@@ -1302,8 +1416,11 @@
       <c r="C38">
         <v>25.57</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D38">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>13881</v>
       </c>
@@ -1313,8 +1430,11 @@
       <c r="C39">
         <v>25.57</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D39">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>14246</v>
       </c>
@@ -1324,8 +1444,11 @@
       <c r="C40">
         <v>25.56</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D40">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>14611</v>
       </c>
@@ -1335,8 +1458,11 @@
       <c r="C41">
         <v>25.54</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D41">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>14977</v>
       </c>
@@ -1346,8 +1472,11 @@
       <c r="C42">
         <v>25.53</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D42">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>15342</v>
       </c>
@@ -1357,8 +1486,11 @@
       <c r="C43">
         <v>25.51</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D43">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>15707</v>
       </c>
@@ -1368,8 +1500,11 @@
       <c r="C44">
         <v>25.51</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D44">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>16072</v>
       </c>
@@ -1379,8 +1514,11 @@
       <c r="C45">
         <v>25.52</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D45">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>16438</v>
       </c>
@@ -1390,8 +1528,11 @@
       <c r="C46">
         <v>25.53</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D46">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>16803</v>
       </c>
@@ -1401,8 +1542,11 @@
       <c r="C47">
         <v>25.55</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D47">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>17168</v>
       </c>
@@ -1412,8 +1556,11 @@
       <c r="C48">
         <v>25.56</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D48">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>17533</v>
       </c>
@@ -1423,8 +1570,11 @@
       <c r="C49">
         <v>25.56</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D49">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>17899</v>
       </c>
@@ -1434,8 +1584,11 @@
       <c r="C50">
         <v>25.54</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D50">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>18264</v>
       </c>
@@ -1445,8 +1598,11 @@
       <c r="C51">
         <v>25.51</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D51">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>18629</v>
       </c>
@@ -1456,8 +1612,11 @@
       <c r="C52">
         <v>25.48</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D52">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>18994</v>
       </c>
@@ -1467,8 +1626,11 @@
       <c r="C53">
         <v>25.45</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D53">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>19360</v>
       </c>
@@ -1478,8 +1640,11 @@
       <c r="C54">
         <v>25.44</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D54">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>19725</v>
       </c>
@@ -1489,8 +1654,11 @@
       <c r="C55">
         <v>25.45</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D55">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>20090</v>
       </c>
@@ -1500,8 +1668,11 @@
       <c r="C56">
         <v>25.47</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D56">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>20455</v>
       </c>
@@ -1511,8 +1682,11 @@
       <c r="C57">
         <v>25.49</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D57">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>20821</v>
       </c>
@@ -1522,8 +1696,11 @@
       <c r="C58">
         <v>25.51</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D58">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>21186</v>
       </c>
@@ -1533,8 +1710,11 @@
       <c r="C59">
         <v>25.52</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D59">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>21551</v>
       </c>
@@ -1544,8 +1724,11 @@
       <c r="C60">
         <v>25.51</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D60">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>21916</v>
       </c>
@@ -1555,8 +1738,11 @@
       <c r="C61">
         <v>25.48</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D61">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>22282</v>
       </c>
@@ -1566,8 +1752,11 @@
       <c r="C62">
         <v>25.44</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D62">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>22647</v>
       </c>
@@ -1577,8 +1766,11 @@
       <c r="C63">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D63">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>23012</v>
       </c>
@@ -1588,8 +1780,11 @@
       <c r="C64">
         <v>25.38</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D64">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>23377</v>
       </c>
@@ -1599,8 +1794,11 @@
       <c r="C65">
         <v>25.38</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D65">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>23743</v>
       </c>
@@ -1610,8 +1808,11 @@
       <c r="C66">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D66">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>24108</v>
       </c>
@@ -1621,8 +1822,11 @@
       <c r="C67">
         <v>25.44</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D67">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>24473</v>
       </c>
@@ -1632,8 +1836,11 @@
       <c r="C68">
         <v>25.48</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D68">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>24838</v>
       </c>
@@ -1643,8 +1850,11 @@
       <c r="C69">
         <v>25.52</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D69">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>25204</v>
       </c>
@@ -1654,8 +1864,11 @@
       <c r="C70">
         <v>25.54</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D70">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>25569</v>
       </c>
@@ -1665,8 +1878,11 @@
       <c r="C71">
         <v>25.54</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D71">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>25934</v>
       </c>
@@ -1676,8 +1892,11 @@
       <c r="C72">
         <v>25.52</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D72">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>26299</v>
       </c>
@@ -1687,8 +1906,11 @@
       <c r="C73">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D73">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>26665</v>
       </c>
@@ -1698,8 +1920,11 @@
       <c r="C74">
         <v>25.47</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D74">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>27030</v>
       </c>
@@ -1709,8 +1934,11 @@
       <c r="C75">
         <v>25.46</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D75">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>27395</v>
       </c>
@@ -1720,8 +1948,11 @@
       <c r="C76">
         <v>25.46</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D76">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>27760</v>
       </c>
@@ -1731,8 +1962,11 @@
       <c r="C77">
         <v>25.47</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D77">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>28126</v>
       </c>
@@ -1742,8 +1976,11 @@
       <c r="C78">
         <v>25.49</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D78">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>28491</v>
       </c>
@@ -1753,8 +1990,11 @@
       <c r="C79">
         <v>25.52</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D79">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>28856</v>
       </c>
@@ -1764,8 +2004,11 @@
       <c r="C80">
         <v>25.54</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D80">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>29221</v>
       </c>
@@ -1775,8 +2018,11 @@
       <c r="C81">
         <v>25.56</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D81">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>29587</v>
       </c>
@@ -1786,8 +2032,11 @@
       <c r="C82">
         <v>25.58</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D82">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>29952</v>
       </c>
@@ -1797,8 +2046,11 @@
       <c r="C83">
         <v>25.59</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D83">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>30317</v>
       </c>
@@ -1808,8 +2060,11 @@
       <c r="C84">
         <v>25.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D84">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>30682</v>
       </c>
@@ -1819,8 +2074,11 @@
       <c r="C85">
         <v>25.62</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D85">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>31048</v>
       </c>
@@ -1830,8 +2088,11 @@
       <c r="C86">
         <v>25.64</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D86">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>31413</v>
       </c>
@@ -1841,8 +2102,11 @@
       <c r="C87">
         <v>25.67</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D87">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>31778</v>
       </c>
@@ -1852,8 +2116,11 @@
       <c r="C88">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D88">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>32143</v>
       </c>
@@ -1863,8 +2130,11 @@
       <c r="C89">
         <v>25.73</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D89">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>32509</v>
       </c>
@@ -1874,8 +2144,11 @@
       <c r="C90">
         <v>25.76</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D90">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>32874</v>
       </c>
@@ -1885,8 +2158,11 @@
       <c r="C91">
         <v>25.77</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D91">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>33239</v>
       </c>
@@ -1896,8 +2172,11 @@
       <c r="C92">
         <v>25.79</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D92">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>33604</v>
       </c>
@@ -1907,8 +2186,11 @@
       <c r="C93">
         <v>25.79</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D93">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>33970</v>
       </c>
@@ -1918,8 +2200,11 @@
       <c r="C94">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D94">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>34335</v>
       </c>
@@ -1929,8 +2214,11 @@
       <c r="C95">
         <v>25.81</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D95">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>34700</v>
       </c>
@@ -1940,8 +2228,11 @@
       <c r="C96">
         <v>25.83</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D96">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>35065</v>
       </c>
@@ -1951,8 +2242,11 @@
       <c r="C97">
         <v>25.86</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D97">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>35431</v>
       </c>
@@ -1962,8 +2256,11 @@
       <c r="C98">
         <v>25.89</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D98">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>35796</v>
       </c>
@@ -1973,8 +2270,11 @@
       <c r="C99">
         <v>25.92</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D99">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>36161</v>
       </c>
@@ -1984,8 +2284,11 @@
       <c r="C100">
         <v>25.94</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D100">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>36526</v>
       </c>
@@ -1995,8 +2298,11 @@
       <c r="C101">
         <v>25.96</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D101">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>36892</v>
       </c>
@@ -2006,8 +2312,11 @@
       <c r="C102">
         <v>25.95</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D102">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>37257</v>
       </c>
@@ -2017,8 +2326,11 @@
       <c r="C103">
         <v>25.94</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D103">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>37622</v>
       </c>
@@ -2028,8 +2340,11 @@
       <c r="C104">
         <v>25.91</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D104">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>37987</v>
       </c>
@@ -2039,8 +2354,11 @@
       <c r="C105">
         <v>25.89</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D105">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>38353</v>
       </c>
@@ -2050,8 +2368,11 @@
       <c r="C106">
         <v>25.87</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D106">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>38718</v>
       </c>
@@ -2061,8 +2382,11 @@
       <c r="C107">
         <v>25.86</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D107">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>39083</v>
       </c>
@@ -2072,8 +2396,11 @@
       <c r="C108">
         <v>25.86</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D108">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>39448</v>
       </c>
@@ -2083,8 +2410,11 @@
       <c r="C109">
         <v>25.87</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D109">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>39814</v>
       </c>
@@ -2094,8 +2424,11 @@
       <c r="C110">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D110">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>40179</v>
       </c>
@@ -2105,8 +2438,11 @@
       <c r="C111">
         <v>25.93</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D111">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>40544</v>
       </c>
@@ -2116,8 +2452,11 @@
       <c r="C112">
         <v>25.96</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D112">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>40909</v>
       </c>
@@ -2127,8 +2466,11 @@
       <c r="C113">
         <v>26</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D113">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>41275</v>
       </c>
@@ -2138,8 +2480,11 @@
       <c r="C114">
         <v>26.04</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D114">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>41640</v>
       </c>
@@ -2149,8 +2494,11 @@
       <c r="C115">
         <v>26.08</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D115">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>42005</v>
       </c>
@@ -2160,8 +2508,11 @@
       <c r="C116">
         <v>26.11</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D116">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>42370</v>
       </c>
@@ -2171,8 +2522,11 @@
       <c r="C117">
         <v>26.12</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D117">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>42736</v>
       </c>
@@ -2182,8 +2536,11 @@
       <c r="C118">
         <v>26.13</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D118">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>43101</v>
       </c>
@@ -2193,8 +2550,11 @@
       <c r="C119">
         <v>26.12</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D119">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>43466</v>
       </c>
@@ -2204,8 +2564,11 @@
       <c r="C120">
         <v>26.11</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D120">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>43831</v>
       </c>
@@ -2215,8 +2578,11 @@
       <c r="C121">
         <v>26.09</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D121">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>44197</v>
       </c>
@@ -2225,6 +2591,9 @@
       </c>
       <c r="C122">
         <v>26.07</v>
+      </c>
+      <c r="D122">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
